--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -202,7 +202,10 @@
     <t xml:space="preserve">Entfällt (Frohnleichnam)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ü10</t>
+    <t xml:space="preserve">V8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCI</t>
   </si>
   <si>
     <t xml:space="preserve">W26</t>
@@ -211,22 +214,19 @@
     <t xml:space="preserve">Ü11</t>
   </si>
   <si>
+    <t xml:space="preserve">V9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gerätretreiber (Linux, Windows)</t>
   </si>
   <si>
-    <t xml:space="preserve">V8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treiber</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aufgabe 7: Eine Anwendung oder zusätzliche Komponente</t>
   </si>
   <si>
     <t xml:space="preserve">W27</t>
   </si>
   <si>
-    <t xml:space="preserve">V9</t>
+    <t xml:space="preserve">V10</t>
   </si>
   <si>
     <t xml:space="preserve">hhuOS</t>
@@ -238,13 +238,13 @@
     <t xml:space="preserve">W28</t>
   </si>
   <si>
-    <t xml:space="preserve">V10</t>
+    <t xml:space="preserve">V11</t>
   </si>
   <si>
     <t xml:space="preserve">Towboot (Niklas)</t>
   </si>
   <si>
-    <t xml:space="preserve">V11</t>
+    <t xml:space="preserve">V12</t>
   </si>
   <si>
     <t xml:space="preserve">D3OS (Michael)</t>
@@ -253,7 +253,7 @@
     <t xml:space="preserve">W29</t>
   </si>
   <si>
-    <t xml:space="preserve">V12</t>
+    <t xml:space="preserve">V13</t>
   </si>
   <si>
     <t xml:space="preserve">myCPU &amp; Apple 1 (Michael)</t>
@@ -451,180 +451,184 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -879,930 +883,930 @@
   </sheetPr>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="32.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="33.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="38.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>45785</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="0"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="16" t="n">
         <v>45754</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="22" t="n">
         <v>45757</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
+      <c r="A14" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="26" t="n">
         <v>45761</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="15" t="n">
+      <c r="B15" s="16" t="n">
         <v>45764</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+      <c r="A17" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="26" t="n">
         <v>45768</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="18" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="21" t="n">
+      <c r="B18" s="22" t="n">
         <v>45771</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="29"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="D19" s="30"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+      <c r="A20" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="16" t="n">
         <v>45775</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="26" t="n">
         <v>45778</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B23" s="15" t="n">
+      <c r="B23" s="16" t="n">
         <v>45782</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="21" t="n">
+      <c r="B24" s="22" t="n">
         <v>45785</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B26" s="21" t="n">
+      <c r="B26" s="22" t="n">
         <v>45789</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="21" t="n">
+      <c r="B27" s="22" t="n">
         <v>45792</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="2"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="n">
+      <c r="A29" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="16" t="n">
         <v>45796</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="19" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="21" t="n">
+      <c r="B30" s="22" t="n">
         <v>45799</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="n">
+      <c r="A32" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="B32" s="21" t="n">
+      <c r="B32" s="22" t="n">
         <v>45803</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="25" t="n">
+      <c r="B33" s="26" t="n">
         <v>45806</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="Q34" s="32"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
+      <c r="Q34" s="33"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
+      <c r="A35" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="B35" s="15" t="n">
+      <c r="B35" s="16" t="n">
         <v>45810</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="19" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="21" t="n">
+      <c r="B36" s="22" t="n">
         <v>45813</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
-      <c r="Q37" s="5"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="Q37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+      <c r="A38" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="B38" s="25" t="n">
+      <c r="B38" s="26" t="n">
         <v>45817</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="21" t="n">
+      <c r="B39" s="22" t="n">
         <v>45820</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-      <c r="Q40" s="5"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25"/>
+      <c r="Q40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
+      <c r="A41" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="B41" s="15" t="n">
+      <c r="B41" s="16" t="n">
         <v>45824</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="19" t="s">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="20"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="25" t="n">
+      <c r="B42" s="26" t="n">
         <v>45827</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="20"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="24"/>
-      <c r="Q43" s="5"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="25"/>
+      <c r="Q43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
+      <c r="A44" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="B44" s="21" t="n">
+      <c r="B44" s="22" t="n">
         <v>45831</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="21"/>
+      <c r="N44" s="34"/>
+      <c r="T44" s="34"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="22" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="20"/>
-      <c r="N44" s="33"/>
-      <c r="T44" s="33"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="21" t="n">
-        <v>45834</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="20"/>
-      <c r="N45" s="33"/>
-      <c r="T45" s="33"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
+      <c r="N45" s="34"/>
+      <c r="T45" s="34"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="N46" s="33"/>
-      <c r="T46" s="33"/>
+      <c r="D46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="N46" s="34"/>
+      <c r="T46" s="34"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
+      <c r="A47" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="B47" s="15" t="n">
+      <c r="B47" s="16" t="n">
         <v>45838</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="19" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="20"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="15" t="n">
+      <c r="B48" s="16" t="n">
         <v>45841</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="20"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="T49" s="33"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="T49" s="34"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
+      <c r="A50" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="B50" s="21" t="n">
+      <c r="B50" s="22" t="n">
         <v>45845</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="15" t="n">
+      <c r="B51" s="16" t="n">
         <v>45848</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="20"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="21"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
+      <c r="A53" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="B53" s="15" t="n">
+      <c r="B53" s="16" t="n">
         <v>45852</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="20"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="15" t="n">
+      <c r="B54" s="16" t="n">
         <v>45856</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="20"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="38"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="24"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="20"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="39"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="20"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="21"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J58" s="43"/>
+      <c r="J58" s="44"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="7"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="7"/>
+      <c r="B68" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t xml:space="preserve">Isolation und Schutz in Betriebssystemen</t>
   </si>
@@ -118,16 +118,13 @@
     <t xml:space="preserve">W50</t>
   </si>
   <si>
-    <t xml:space="preserve"> Aufgabe 5: Isolation von Kernel und User-Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">W51</t>
   </si>
   <si>
     <t xml:space="preserve">x86_64: Paging  (Teil2: Meltdown, PCID, MemoryKeys)</t>
   </si>
   <si>
-    <t xml:space="preserve">Aufgabe 6: Isolation mehrerer Anwendungen durch Prozesse</t>
+    <t xml:space="preserve">Aufgabe 5: Isolation von Kernel- und User-Code + Prozesse</t>
   </si>
   <si>
     <t xml:space="preserve">Weihnachtspause</t>
@@ -139,7 +136,7 @@
     <t xml:space="preserve">W3</t>
   </si>
   <si>
-    <t xml:space="preserve">Aufgabe 7: VMAs, Heaps und dynamisch wachsender Stack im Ring 3</t>
+    <t xml:space="preserve">Aufgabe 6: VMAs, Heaps und dynamisch wachsender Stack im Ring 3</t>
   </si>
   <si>
     <t xml:space="preserve">W4</t>
@@ -148,7 +145,7 @@
     <t xml:space="preserve">W5</t>
   </si>
   <si>
-    <t xml:space="preserve">Aufgabe 8: Eigene Anwendung</t>
+    <t xml:space="preserve">Aufgabe 7: Eigene Anwendung</t>
   </si>
   <si>
     <t xml:space="preserve">W6</t>
@@ -167,7 +164,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,12 +252,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -421,280 +412,276 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -949,373 +936,373 @@
   </sheetPr>
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="38.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="33.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="38.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>45569</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="18" t="n">
         <v>45943</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24" t="n">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25" t="n">
         <v>45946</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="K13" s="26"/>
+      <c r="A13" s="26"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="27" t="n">
+      <c r="B14" s="25" t="n">
         <v>45950</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="29"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27" t="n">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25" t="n">
         <v>45953</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="21"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="H16" s="2"/>
-      <c r="K16" s="26"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="27" t="n">
+      <c r="B17" s="25" t="n">
         <v>45957</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="32"/>
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23"/>
-      <c r="B18" s="17" t="n">
+      <c r="A18" s="24"/>
+      <c r="B18" s="18" t="n">
         <v>45960</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="20" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="D19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="K19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="27" t="n">
+      <c r="B20" s="25" t="n">
         <v>45964</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="35"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23"/>
-      <c r="B21" s="27" t="n">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25" t="n">
         <v>45967</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="D22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="K22" s="26"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="27" t="n">
+      <c r="B23" s="25" t="n">
         <v>45971</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="35"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23"/>
-      <c r="B24" s="27" t="n">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25" t="n">
         <v>45974</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="K25" s="26"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="27" t="n">
+      <c r="B26" s="25" t="n">
         <v>45978</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="21"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="36"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23"/>
-      <c r="B27" s="27" t="n">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25" t="n">
         <v>45981</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
-      <c r="K28" s="26"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="39" t="n">
@@ -1327,526 +1314,520 @@
       <c r="D29" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="19"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="29"/>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="35"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23"/>
-      <c r="B30" s="27" t="n">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25" t="n">
         <v>45988</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="30"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="40"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="37"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25"/>
+      <c r="A31" s="26"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="K31" s="26"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="27" t="n">
+      <c r="B32" s="25" t="n">
         <v>45992</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="40"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16"/>
-      <c r="B33" s="27" t="n">
+      <c r="A33" s="17"/>
+      <c r="B33" s="25" t="n">
         <v>45995</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="18"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="40"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25"/>
+      <c r="A34" s="26"/>
       <c r="D34" s="1"/>
-      <c r="K34" s="26"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="42"/>
       <c r="R34" s="42"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="27" t="n">
+      <c r="B35" s="25" t="n">
         <v>45999</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="40" t="s">
-        <v>32</v>
-      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="36"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23"/>
-      <c r="B36" s="27" t="n">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25" t="n">
         <v>46002</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="18"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="40"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="37"/>
     </row>
-    <row r="37" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="0"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="26"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="0"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="0"/>
-      <c r="T37" s="0"/>
-      <c r="U37" s="0"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="25" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="27" t="n">
-        <v>46006</v>
-      </c>
-      <c r="C38" s="27" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="43"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="44"/>
+      <c r="B39" s="25" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="44"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="45"/>
-      <c r="B39" s="27" t="n">
-        <v>46009</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="40" t="s">
+      <c r="D39" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="26"/>
+      <c r="F40" s="2"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="6"/>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25"/>
-      <c r="F40" s="2"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="5"/>
-      <c r="R40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48" t="s">
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="52"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="53"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="K42" s="27"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="53"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="54"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0"/>
-      <c r="K42" s="26"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
+      <c r="B43" s="25" t="n">
+        <v>46027</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17"/>
+      <c r="B44" s="25" t="n">
+        <v>46030</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="26"/>
+      <c r="F45" s="2"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="6"/>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="27" t="n">
-        <v>46027</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="22"/>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16"/>
-      <c r="B44" s="27" t="n">
-        <v>46030</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25"/>
-      <c r="F45" s="2"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="5"/>
-      <c r="R45" s="5"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="27" t="n">
+      <c r="B46" s="25" t="n">
         <v>46034</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="23"/>
+      <c r="O46" s="56"/>
+      <c r="U46" s="56"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="17"/>
+      <c r="B47" s="25" t="n">
+        <v>46037</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23"/>
+      <c r="O47" s="56"/>
+      <c r="U47" s="56"/>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="26"/>
+      <c r="D48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="K48" s="27"/>
+      <c r="O48" s="56"/>
+      <c r="U48" s="56"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="22"/>
-      <c r="O46" s="57"/>
-      <c r="U46" s="57"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16"/>
-      <c r="B47" s="27" t="n">
-        <v>46037</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22"/>
-      <c r="O47" s="57"/>
-      <c r="U47" s="57"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25"/>
-      <c r="D48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="K48" s="26"/>
-      <c r="O48" s="57"/>
-      <c r="U48" s="57"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="27" t="n">
+      <c r="B49" s="25" t="n">
         <v>46041</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="59"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="33"/>
       <c r="G49" s="40"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="22"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16"/>
-      <c r="B50" s="27" t="n">
+      <c r="A50" s="17"/>
+      <c r="B50" s="25" t="n">
         <v>46044</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="59"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="33"/>
       <c r="G50" s="40"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="M51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="U51" s="57"/>
+      <c r="A51" s="26"/>
+      <c r="K51" s="27"/>
+      <c r="M51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="U51" s="56"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="27" t="n">
+      <c r="A52" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="25" t="n">
         <v>46048</v>
       </c>
       <c r="C52" s="39"/>
       <c r="D52" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="59"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="33"/>
       <c r="G52" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16"/>
-      <c r="B53" s="27" t="n">
+      <c r="A53" s="17"/>
+      <c r="B53" s="25" t="n">
         <v>46051</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="59"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="32"/>
       <c r="G53" s="40"/>
       <c r="H53" s="41"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="25"/>
+      <c r="A54" s="26"/>
       <c r="H54" s="2"/>
-      <c r="K54" s="26"/>
+      <c r="K54" s="27"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="25" t="n">
+        <v>46055</v>
+      </c>
+      <c r="C55" s="59"/>
+      <c r="D55" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="58"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="23"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17"/>
+      <c r="B56" s="25" t="n">
+        <v>46058</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="58"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="23"/>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="26"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="61"/>
+      <c r="H57" s="2"/>
+      <c r="K57" s="27"/>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="44"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="44"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="23"/>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="63"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="67"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="27" t="n">
-        <v>46055</v>
-      </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="22"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16"/>
-      <c r="B56" s="27" t="n">
-        <v>46058</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="59"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="22"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="62"/>
-      <c r="H57" s="2"/>
-      <c r="K57" s="26"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="45"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="22"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="45"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="22"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="68"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
